--- a/data/trans_dic/P21D_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Edad-trans_dic.xlsx
@@ -610,10 +610,10 @@
         <v>0.008235053109150457</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.006686217962884465</v>
+        <v>0.006686217962884466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.00742243006829404</v>
+        <v>0.007422430068294039</v>
       </c>
     </row>
     <row r="8">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04268983345441195</v>
+        <v>0.04476738858606272</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03648238529908977</v>
+        <v>0.02802561151177939</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02539912301738374</v>
+        <v>0.02630620389711246</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>0.0119652553560288</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.006463261304078814</v>
+        <v>0.006463261304078815</v>
       </c>
     </row>
     <row r="11">
@@ -680,10 +680,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.0045850881616326</v>
+        <v>0.002859419032682935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002490737643547016</v>
+        <v>0.002482407192188349</v>
       </c>
     </row>
     <row r="12">
@@ -695,10 +695,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02439363664234625</v>
+        <v>0.02635756070966937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0137467170020871</v>
+        <v>0.01436651697127641</v>
       </c>
     </row>
     <row r="13">
@@ -716,7 +716,7 @@
         <v>0.009428094788119219</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.007235753159893542</v>
+        <v>0.00723575315989354</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.008284397649354014</v>
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002876910872180413</v>
+        <v>0.002875845647519001</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001873224832711708</v>
+        <v>0.001919470630489158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003385221157158257</v>
+        <v>0.003398678707339683</v>
       </c>
     </row>
     <row r="15">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02649008755262747</v>
+        <v>0.02399615960207527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01817683572622067</v>
+        <v>0.01708419701415333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01590992270809569</v>
+        <v>0.01709039520642354</v>
       </c>
     </row>
     <row r="16">
@@ -774,7 +774,7 @@
         <v>0.0262962423380612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01751978248367427</v>
+        <v>0.01751978248367426</v>
       </c>
     </row>
     <row r="17">
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01386727156978529</v>
+        <v>0.01389679319794479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009224320568533119</v>
+        <v>0.009518959459503646</v>
       </c>
     </row>
     <row r="18">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03024161094707628</v>
+        <v>0.02938112079668918</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04703769749568888</v>
+        <v>0.04704632726849321</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02924973816139832</v>
+        <v>0.0291067781538501</v>
       </c>
     </row>
     <row r="19">
@@ -826,10 +826,10 @@
         <v>0.005349363463132619</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02397575220629605</v>
+        <v>0.02397575220629604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.01531169864263506</v>
+        <v>0.01531169864263505</v>
       </c>
     </row>
     <row r="20">
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01045869651836852</v>
+        <v>0.01172813158812824</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007378702317916244</v>
+        <v>0.006815201458891375</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03448727217966923</v>
+        <v>0.02700057226580296</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04502749025696019</v>
+        <v>0.04508676539418833</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02899597190925935</v>
+        <v>0.02772249452939083</v>
       </c>
     </row>
     <row r="22">
@@ -881,10 +881,10 @@
         <v>0.004521328732561106</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.009395905833809991</v>
+        <v>0.009395905833809993</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.007395543962038195</v>
+        <v>0.007395543962038197</v>
       </c>
     </row>
     <row r="23">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003012061305139555</v>
+        <v>0.00300274478907881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001827450563716841</v>
+        <v>0.001876252638426462</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02619740962341167</v>
+        <v>0.0283973908054655</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01801596488247176</v>
+        <v>0.01748459670428363</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.01234686822717714</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="28">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9683</v>
+        <v>10154</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9134</v>
+        <v>7016</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12120</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="12">
@@ -1251,10 +1251,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1360</v>
+        <v>848</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1368</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="15">
@@ -1266,10 +1266,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>7236</v>
+        <v>7819</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7549</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="16">
@@ -1321,10 +1321,10 @@
         <v>912</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2244</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="19">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8399</v>
+        <v>7608</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6286</v>
+        <v>5908</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10546</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="20">
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3525</v>
+        <v>3532</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4710</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="23">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7756</v>
+        <v>7536</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11956</v>
+        <v>11958</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14936</v>
+        <v>14863</v>
       </c>
     </row>
     <row r="24">
@@ -1465,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2081</v>
+        <v>2334</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2745</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="27">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5968</v>
+        <v>4672</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8960</v>
+        <v>8971</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10787</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="28">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>4877</v>
+        <v>5286</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5688</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="32">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
     </row>
     <row r="36">
